--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Standard Device Config.</t>
   </si>
@@ -28,7 +28,7 @@
     <t>3d61125</t>
   </si>
   <si>
-    <t>512.11 GB</t>
+    <t>1.02 TB</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,6 +387,46 @@
         <v>4</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Standard Device Config.</t>
   </si>
@@ -29,6 +29,72 @@
   </si>
   <si>
     <t>1.02 TB</t>
+  </si>
+  <si>
+    <t>BURST SEQUENTIAL WRITE</t>
+  </si>
+  <si>
+    <t>BURST SEQUENTIAL READ</t>
+  </si>
+  <si>
+    <t>BURST RANDOM WRITE</t>
+  </si>
+  <si>
+    <t>BURST RANDOM READ</t>
+  </si>
+  <si>
+    <t>BURST RANDOM WRITE OIO</t>
+  </si>
+  <si>
+    <t>BURST RANDOM READ OIO</t>
+  </si>
+  <si>
+    <t>SUBSTAIN SEQUENTIAL WRITE</t>
+  </si>
+  <si>
+    <t>BLOCK SIZE</t>
+  </si>
+  <si>
+    <t>IO-DEPTHS</t>
+  </si>
+  <si>
+    <t>THREADS</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>PRECONDITION</t>
+  </si>
+  <si>
+    <t>IOPS</t>
+  </si>
+  <si>
+    <t>BANDWIDTH</t>
+  </si>
+  <si>
+    <t>AVG, LATENCY</t>
+  </si>
+  <si>
+    <t>50th</t>
+  </si>
+  <si>
+    <t>75th</t>
+  </si>
+  <si>
+    <t>99th</t>
+  </si>
+  <si>
+    <t>99.9th</t>
+  </si>
+  <si>
+    <t>99.99th</t>
+  </si>
+  <si>
+    <t>99.999th</t>
+  </si>
+  <si>
+    <t>99.9999th</t>
   </si>
 </sst>
 </file>
@@ -360,18 +426,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -379,7 +445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -387,44 +453,91 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="5" spans="1:16">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -52,6 +52,9 @@
     <t>SUBSTAIN SEQUENTIAL WRITE</t>
   </si>
   <si>
+    <t>SIZE</t>
+  </si>
+  <si>
     <t>BLOCK SIZE</t>
   </si>
   <si>
@@ -61,9 +64,6 @@
     <t>THREADS</t>
   </si>
   <si>
-    <t>SIZE</t>
-  </si>
-  <si>
     <t>PRECONDITION</t>
   </si>
   <si>
@@ -73,7 +73,7 @@
     <t>BANDWIDTH</t>
   </si>
   <si>
-    <t>AVG, LATENCY</t>
+    <t>AVG. LATENCY</t>
   </si>
   <si>
     <t>50th</t>

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Standard Device Config.</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>99.9999th</t>
+  </si>
+  <si>
+    <t>1GB</t>
+  </si>
+  <si>
+    <t>128KB</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>BPC1</t>
   </si>
 </sst>
 </file>
@@ -504,10 +519,100 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>23.3</v>
+      </c>
+      <c r="H6">
+        <v>3060</v>
+      </c>
+      <c r="I6">
+        <v>336.04</v>
+      </c>
+      <c r="J6">
+        <v>269</v>
+      </c>
+      <c r="K6">
+        <v>310</v>
+      </c>
+      <c r="L6">
+        <v>1369</v>
+      </c>
+      <c r="M6">
+        <v>5276</v>
+      </c>
+      <c r="N6">
+        <v>5473</v>
+      </c>
+      <c r="O6">
+        <v>6390</v>
+      </c>
+      <c r="P6">
+        <v>6456</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>27.3</v>
+      </c>
+      <c r="H7">
+        <v>3576</v>
+      </c>
+      <c r="I7">
+        <v>290.1</v>
+      </c>
+      <c r="J7">
+        <v>297</v>
+      </c>
+      <c r="K7">
+        <v>322</v>
+      </c>
+      <c r="L7">
+        <v>408</v>
+      </c>
+      <c r="M7">
+        <v>441</v>
+      </c>
+      <c r="N7">
+        <v>465</v>
+      </c>
+      <c r="O7">
+        <v>1074</v>
+      </c>
+      <c r="P7">
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:16">

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
   <si>
     <t>Standard Device Config.</t>
   </si>
@@ -37,6 +37,12 @@
     <t>BURST SEQUENTIAL READ</t>
   </si>
   <si>
+    <t>SUBSTAIN SEQUENTIAL WRITE</t>
+  </si>
+  <si>
+    <t>SUBSTAIN SEQUENTIAL READ</t>
+  </si>
+  <si>
     <t>BURST RANDOM WRITE</t>
   </si>
   <si>
@@ -49,9 +55,6 @@
     <t>BURST RANDOM READ OIO</t>
   </si>
   <si>
-    <t>SUBSTAIN SEQUENTIAL WRITE</t>
-  </si>
-  <si>
     <t>SIZE</t>
   </si>
   <si>
@@ -110,6 +113,18 @@
   </si>
   <si>
     <t>BPC1</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>4KB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -470,49 +485,49 @@
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -520,19 +535,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>23.3</v>
@@ -570,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>27.3</v>
@@ -619,30 +634,300 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>6.924</v>
+      </c>
+      <c r="H8">
+        <v>908</v>
+      </c>
+      <c r="I8">
+        <v>1123.03</v>
+      </c>
+      <c r="J8">
+        <v>1237</v>
+      </c>
+      <c r="K8">
+        <v>1385</v>
+      </c>
+      <c r="L8">
+        <v>3916</v>
+      </c>
+      <c r="M8">
+        <v>7111</v>
+      </c>
+      <c r="N8">
+        <v>7635</v>
+      </c>
+      <c r="O8">
+        <v>7767</v>
+      </c>
+      <c r="P8">
+        <v>7767</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>27.5</v>
+      </c>
+      <c r="H9">
+        <v>3610</v>
+      </c>
+      <c r="I9">
+        <v>287.41</v>
+      </c>
+      <c r="J9">
+        <v>297</v>
+      </c>
+      <c r="K9">
+        <v>322</v>
+      </c>
+      <c r="L9">
+        <v>396</v>
+      </c>
+      <c r="M9">
+        <v>498</v>
+      </c>
+      <c r="N9">
+        <v>750</v>
+      </c>
+      <c r="O9">
+        <v>1106</v>
+      </c>
+      <c r="P9">
+        <v>1156</v>
+      </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>136</v>
+      </c>
+      <c r="H10">
+        <v>556</v>
+      </c>
+      <c r="I10">
+        <v>232.73</v>
+      </c>
+      <c r="J10">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>215</v>
+      </c>
+      <c r="L10">
+        <v>1156</v>
+      </c>
+      <c r="M10">
+        <v>17695</v>
+      </c>
+      <c r="N10">
+        <v>20317</v>
+      </c>
+      <c r="O10">
+        <v>27132</v>
+      </c>
+      <c r="P10">
+        <v>27395</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11">
+        <v>275</v>
+      </c>
+      <c r="H11">
+        <v>1127</v>
+      </c>
+      <c r="I11">
+        <v>114.77</v>
+      </c>
+      <c r="J11">
+        <v>101</v>
+      </c>
+      <c r="K11">
+        <v>133</v>
+      </c>
+      <c r="L11">
+        <v>273</v>
+      </c>
+      <c r="M11">
+        <v>367</v>
+      </c>
+      <c r="N11">
+        <v>461</v>
+      </c>
+      <c r="O11">
+        <v>832</v>
+      </c>
+      <c r="P11">
+        <v>922</v>
+      </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="H12">
+        <v>363</v>
+      </c>
+      <c r="I12">
+        <v>10.04978</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>54</v>
+      </c>
+      <c r="M12">
+        <v>127</v>
+      </c>
+      <c r="N12">
+        <v>1811</v>
+      </c>
+      <c r="O12">
+        <v>5735</v>
+      </c>
+      <c r="P12">
+        <v>11207</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>12.3</v>
+      </c>
+      <c r="H13">
+        <v>50.4</v>
+      </c>
+      <c r="I13">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="J13">
+        <v>89</v>
+      </c>
+      <c r="K13">
+        <v>90</v>
+      </c>
+      <c r="L13">
+        <v>93</v>
+      </c>
+      <c r="M13">
+        <v>102</v>
+      </c>
+      <c r="N13">
+        <v>188</v>
+      </c>
+      <c r="O13">
+        <v>594</v>
+      </c>
+      <c r="P13">
+        <v>816</v>
       </c>
     </row>
   </sheetData>

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -550,13 +550,13 @@
         <v>32</v>
       </c>
       <c r="G6">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="H6">
-        <v>3060</v>
+        <v>3074</v>
       </c>
       <c r="I6">
-        <v>336.04</v>
+        <v>334.97</v>
       </c>
       <c r="J6">
         <v>269</v>
@@ -565,19 +565,19 @@
         <v>310</v>
       </c>
       <c r="L6">
-        <v>1369</v>
+        <v>1352</v>
       </c>
       <c r="M6">
-        <v>5276</v>
+        <v>3097</v>
       </c>
       <c r="N6">
-        <v>5473</v>
+        <v>5014</v>
       </c>
       <c r="O6">
-        <v>6390</v>
+        <v>5080</v>
       </c>
       <c r="P6">
-        <v>6456</v>
+        <v>5080</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -600,34 +600,34 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>27.3</v>
+        <v>29.9</v>
       </c>
       <c r="H7">
-        <v>3576</v>
+        <v>3914</v>
       </c>
       <c r="I7">
-        <v>290.1</v>
+        <v>264.78</v>
       </c>
       <c r="J7">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="K7">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="L7">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="M7">
-        <v>441</v>
+        <v>334</v>
       </c>
       <c r="N7">
-        <v>465</v>
+        <v>523</v>
       </c>
       <c r="O7">
-        <v>1074</v>
+        <v>857</v>
       </c>
       <c r="P7">
-        <v>1106</v>
+        <v>865</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -650,34 +650,34 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>6.924</v>
+        <v>23.5</v>
       </c>
       <c r="H8">
-        <v>908</v>
+        <v>3082</v>
       </c>
       <c r="I8">
-        <v>1123.03</v>
+        <v>333.66</v>
       </c>
       <c r="J8">
-        <v>1237</v>
+        <v>269</v>
       </c>
       <c r="K8">
-        <v>1385</v>
+        <v>310</v>
       </c>
       <c r="L8">
-        <v>3916</v>
+        <v>1303</v>
       </c>
       <c r="M8">
-        <v>7111</v>
+        <v>3097</v>
       </c>
       <c r="N8">
-        <v>7635</v>
+        <v>5473</v>
       </c>
       <c r="O8">
-        <v>7767</v>
+        <v>5473</v>
       </c>
       <c r="P8">
-        <v>7767</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -700,34 +700,34 @@
         <v>32</v>
       </c>
       <c r="G9">
-        <v>27.5</v>
+        <v>35.2</v>
       </c>
       <c r="H9">
-        <v>3610</v>
+        <v>4620</v>
       </c>
       <c r="I9">
-        <v>287.41</v>
+        <v>224.33</v>
       </c>
       <c r="J9">
+        <v>265</v>
+      </c>
+      <c r="K9">
+        <v>265</v>
+      </c>
+      <c r="L9">
         <v>297</v>
       </c>
-      <c r="K9">
-        <v>322</v>
-      </c>
-      <c r="L9">
-        <v>396</v>
-      </c>
       <c r="M9">
-        <v>498</v>
+        <v>302</v>
       </c>
       <c r="N9">
-        <v>750</v>
+        <v>338</v>
       </c>
       <c r="O9">
-        <v>1106</v>
+        <v>824</v>
       </c>
       <c r="P9">
-        <v>1156</v>
+        <v>889</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -750,34 +750,34 @@
         <v>32</v>
       </c>
       <c r="G10">
-        <v>136</v>
+        <v>456</v>
       </c>
       <c r="H10">
-        <v>556</v>
+        <v>1866</v>
       </c>
       <c r="I10">
-        <v>232.73</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="J10">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="L10">
-        <v>1156</v>
+        <v>379</v>
       </c>
       <c r="M10">
-        <v>17695</v>
+        <v>2212</v>
       </c>
       <c r="N10">
-        <v>20317</v>
+        <v>5604</v>
       </c>
       <c r="O10">
-        <v>27132</v>
+        <v>6652</v>
       </c>
       <c r="P10">
-        <v>27395</v>
+        <v>6652</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -800,34 +800,34 @@
         <v>32</v>
       </c>
       <c r="G11">
-        <v>275</v>
+        <v>358</v>
       </c>
       <c r="H11">
-        <v>1127</v>
+        <v>1467</v>
       </c>
       <c r="I11">
-        <v>114.77</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="J11">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="L11">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="M11">
-        <v>367</v>
+        <v>241</v>
       </c>
       <c r="N11">
-        <v>461</v>
+        <v>343</v>
       </c>
       <c r="O11">
-        <v>832</v>
+        <v>791</v>
       </c>
       <c r="P11">
-        <v>922</v>
+        <v>947</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -850,13 +850,13 @@
         <v>32</v>
       </c>
       <c r="G12">
-        <v>88.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H12">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="I12">
-        <v>10.04978</v>
+        <v>9.1</v>
       </c>
       <c r="J12">
         <v>10</v>
@@ -865,19 +865,19 @@
         <v>10</v>
       </c>
       <c r="L12">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>127</v>
+        <v>42</v>
       </c>
       <c r="N12">
-        <v>1811</v>
+        <v>2089</v>
       </c>
       <c r="O12">
-        <v>5735</v>
+        <v>2835</v>
       </c>
       <c r="P12">
-        <v>11207</v>
+        <v>4686</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -900,34 +900,34 @@
         <v>32</v>
       </c>
       <c r="G13">
-        <v>12.3</v>
+        <v>15.9</v>
       </c>
       <c r="H13">
-        <v>50.4</v>
+        <v>65.2</v>
       </c>
       <c r="I13">
-        <v>80.15000000000001</v>
+        <v>61.62</v>
       </c>
       <c r="J13">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="N13">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="O13">
-        <v>594</v>
+        <v>750</v>
       </c>
       <c r="P13">
-        <v>816</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/write_data.xlsx
+++ b/write_data.xlsx
@@ -148,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,12 +156,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,471 +479,471 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6">
-        <v>23.5</v>
-      </c>
-      <c r="H6">
-        <v>3074</v>
-      </c>
-      <c r="I6">
-        <v>334.97</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3060</v>
+      </c>
+      <c r="I6" s="1">
+        <v>336.04</v>
+      </c>
+      <c r="J6" s="1">
         <v>269</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>310</v>
       </c>
-      <c r="L6">
-        <v>1352</v>
-      </c>
-      <c r="M6">
-        <v>3097</v>
-      </c>
-      <c r="N6">
-        <v>5014</v>
-      </c>
-      <c r="O6">
-        <v>5080</v>
-      </c>
-      <c r="P6">
-        <v>5080</v>
+      <c r="L6" s="1">
+        <v>1369</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5276</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5473</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6390</v>
+      </c>
+      <c r="P6" s="1">
+        <v>6456</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7">
-        <v>29.9</v>
-      </c>
-      <c r="H7">
-        <v>3914</v>
-      </c>
-      <c r="I7">
-        <v>264.78</v>
-      </c>
-      <c r="J7">
-        <v>265</v>
-      </c>
-      <c r="K7">
-        <v>265</v>
-      </c>
-      <c r="L7">
-        <v>310</v>
-      </c>
-      <c r="M7">
-        <v>334</v>
-      </c>
-      <c r="N7">
-        <v>523</v>
-      </c>
-      <c r="O7">
-        <v>857</v>
-      </c>
-      <c r="P7">
-        <v>865</v>
+      <c r="G7" s="1">
+        <v>27.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3576</v>
+      </c>
+      <c r="I7" s="1">
+        <v>290.1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>297</v>
+      </c>
+      <c r="K7" s="1">
+        <v>322</v>
+      </c>
+      <c r="L7" s="1">
+        <v>408</v>
+      </c>
+      <c r="M7" s="1">
+        <v>441</v>
+      </c>
+      <c r="N7" s="1">
+        <v>465</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1074</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1106</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8">
-        <v>23.5</v>
-      </c>
-      <c r="H8">
-        <v>3082</v>
-      </c>
-      <c r="I8">
-        <v>333.66</v>
-      </c>
-      <c r="J8">
-        <v>269</v>
-      </c>
-      <c r="K8">
-        <v>310</v>
-      </c>
-      <c r="L8">
-        <v>1303</v>
-      </c>
-      <c r="M8">
-        <v>3097</v>
-      </c>
-      <c r="N8">
-        <v>5473</v>
-      </c>
-      <c r="O8">
-        <v>5473</v>
-      </c>
-      <c r="P8">
-        <v>5473</v>
+      <c r="G8" s="1">
+        <v>6.924</v>
+      </c>
+      <c r="H8" s="1">
+        <v>908</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1123.03</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1237</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1385</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3916</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7111</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7635</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7767</v>
+      </c>
+      <c r="P8" s="1">
+        <v>7767</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G9">
-        <v>35.2</v>
-      </c>
-      <c r="H9">
-        <v>4620</v>
-      </c>
-      <c r="I9">
-        <v>224.33</v>
-      </c>
-      <c r="J9">
-        <v>265</v>
-      </c>
-      <c r="K9">
-        <v>265</v>
-      </c>
-      <c r="L9">
+      <c r="G9" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3610</v>
+      </c>
+      <c r="I9" s="1">
+        <v>287.41</v>
+      </c>
+      <c r="J9" s="1">
         <v>297</v>
       </c>
-      <c r="M9">
-        <v>302</v>
-      </c>
-      <c r="N9">
-        <v>338</v>
-      </c>
-      <c r="O9">
-        <v>824</v>
-      </c>
-      <c r="P9">
-        <v>889</v>
+      <c r="K9" s="1">
+        <v>322</v>
+      </c>
+      <c r="L9" s="1">
+        <v>396</v>
+      </c>
+      <c r="M9" s="1">
+        <v>498</v>
+      </c>
+      <c r="N9" s="1">
+        <v>750</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1106</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1156</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10">
-        <v>456</v>
-      </c>
-      <c r="H10">
-        <v>1866</v>
-      </c>
-      <c r="I10">
-        <v>68.73999999999999</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="1">
+        <v>136</v>
+      </c>
+      <c r="H10" s="1">
+        <v>556</v>
+      </c>
+      <c r="I10" s="1">
+        <v>232.73</v>
+      </c>
+      <c r="J10" s="1">
+        <v>93</v>
+      </c>
+      <c r="K10" s="1">
+        <v>215</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1156</v>
+      </c>
+      <c r="M10" s="1">
+        <v>17695</v>
+      </c>
+      <c r="N10" s="1">
+        <v>20317</v>
+      </c>
+      <c r="O10" s="1">
+        <v>27132</v>
+      </c>
+      <c r="P10" s="1">
+        <v>27395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="1">
+        <v>275</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1127</v>
+      </c>
+      <c r="I11" s="1">
+        <v>114.77</v>
+      </c>
+      <c r="J11" s="1">
+        <v>101</v>
+      </c>
+      <c r="K11" s="1">
+        <v>133</v>
+      </c>
+      <c r="L11" s="1">
+        <v>273</v>
+      </c>
+      <c r="M11" s="1">
+        <v>367</v>
+      </c>
+      <c r="N11" s="1">
+        <v>461</v>
+      </c>
+      <c r="O11" s="1">
+        <v>832</v>
+      </c>
+      <c r="P11" s="1">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="1">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>363</v>
+      </c>
+      <c r="I12" s="1">
+        <v>10.04978</v>
+      </c>
+      <c r="J12" s="1">
+        <v>10</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
         <v>54</v>
       </c>
-      <c r="K10">
-        <v>57</v>
-      </c>
-      <c r="L10">
-        <v>379</v>
-      </c>
-      <c r="M10">
-        <v>2212</v>
-      </c>
-      <c r="N10">
-        <v>5604</v>
-      </c>
-      <c r="O10">
-        <v>6652</v>
-      </c>
-      <c r="P10">
-        <v>6652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="M12" s="1">
+        <v>127</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1811</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5735</v>
+      </c>
+      <c r="P12" s="1">
+        <v>11207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G11">
-        <v>358</v>
-      </c>
-      <c r="H11">
-        <v>1467</v>
-      </c>
-      <c r="I11">
-        <v>87.81999999999999</v>
-      </c>
-      <c r="J11">
-        <v>80</v>
-      </c>
-      <c r="K11">
-        <v>99</v>
-      </c>
-      <c r="L11">
-        <v>180</v>
-      </c>
-      <c r="M11">
-        <v>241</v>
-      </c>
-      <c r="N11">
-        <v>343</v>
-      </c>
-      <c r="O11">
-        <v>791</v>
-      </c>
-      <c r="P11">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12">
-        <v>96.3</v>
-      </c>
-      <c r="H12">
-        <v>394</v>
-      </c>
-      <c r="I12">
-        <v>9.1</v>
-      </c>
-      <c r="J12">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>42</v>
-      </c>
-      <c r="N12">
-        <v>2089</v>
-      </c>
-      <c r="O12">
-        <v>2835</v>
-      </c>
-      <c r="P12">
-        <v>4686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13">
-        <v>15.9</v>
-      </c>
-      <c r="H13">
-        <v>65.2</v>
-      </c>
-      <c r="I13">
-        <v>61.62</v>
-      </c>
-      <c r="J13">
-        <v>63</v>
-      </c>
-      <c r="K13">
-        <v>64</v>
-      </c>
-      <c r="L13">
-        <v>67</v>
-      </c>
-      <c r="M13">
-        <v>75</v>
-      </c>
-      <c r="N13">
-        <v>169</v>
-      </c>
-      <c r="O13">
-        <v>750</v>
-      </c>
-      <c r="P13">
-        <v>750</v>
+      <c r="G13" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="H13" s="1">
+        <v>50.4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>80.15000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>89</v>
+      </c>
+      <c r="K13" s="1">
+        <v>90</v>
+      </c>
+      <c r="L13" s="1">
+        <v>93</v>
+      </c>
+      <c r="M13" s="1">
+        <v>102</v>
+      </c>
+      <c r="N13" s="1">
+        <v>188</v>
+      </c>
+      <c r="O13" s="1">
+        <v>594</v>
+      </c>
+      <c r="P13" s="1">
+        <v>816</v>
       </c>
     </row>
   </sheetData>
